--- a/all_times_2/Rolling_monthly_reports/ all_times_2_Rolling_Monthly_Report_TR1500_DD1500_SZ1_DYN_False_TDDTrue.xlsx
+++ b/all_times_2/Rolling_monthly_reports/ all_times_2_Rolling_Monthly_Report_TR1500_DD1500_SZ1_DYN_False_TDDTrue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>2019-05</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>2025-08</t>
+  </si>
+  <si>
+    <t>2025-09</t>
   </si>
   <si>
     <t>TARGETS STATISTICS</t>
@@ -681,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY21"/>
+  <dimension ref="A1:BZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -690,7 +693,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:78">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,15 +922,18 @@
       <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:78">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:78">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1148,10 +1154,22 @@
       <c r="BV3">
         <v>5</v>
       </c>
+      <c r="BW3">
+        <v>21</v>
+      </c>
+      <c r="BX3">
+        <v>21</v>
+      </c>
+      <c r="BY3">
+        <v>21</v>
+      </c>
+      <c r="BZ3">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:78">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>144</v>
@@ -1322,732 +1340,780 @@
         <v>108</v>
       </c>
       <c r="BF4">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="BG4">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="BH4">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BI4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BJ4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BK4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BL4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BM4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BN4">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="BO4">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="BP4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BQ4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BR4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BS4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BT4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BU4">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="BV4">
-        <v>9</v>
+        <v>101</v>
+      </c>
+      <c r="BW4">
+        <v>90</v>
+      </c>
+      <c r="BX4">
+        <v>69</v>
+      </c>
+      <c r="BY4">
+        <v>41</v>
+      </c>
+      <c r="BZ4">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:77" s="2" customFormat="1">
+    <row r="5" spans="1:78" s="2" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2">
-        <v>45.2</v>
+        <v>46.34</v>
       </c>
       <c r="C5" s="2">
+        <v>46.32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>46.46</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46.57</v>
+      </c>
+      <c r="F5" s="2">
+        <v>46.26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45.72</v>
+      </c>
+      <c r="H5" s="2">
         <v>45.18</v>
       </c>
-      <c r="D5" s="2">
-        <v>45.3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45.39</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45.04</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44.43</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43.82</v>
-      </c>
       <c r="I5" s="2">
-        <v>43.55</v>
+        <v>44.95</v>
       </c>
       <c r="J5" s="2">
-        <v>43.55</v>
+        <v>44.95</v>
       </c>
       <c r="K5" s="2">
-        <v>43.55</v>
+        <v>44.95</v>
       </c>
       <c r="L5" s="2">
-        <v>43.55</v>
+        <v>44.95</v>
       </c>
       <c r="M5" s="2">
-        <v>43.75</v>
+        <v>45.15</v>
       </c>
       <c r="N5" s="2">
-        <v>44.23</v>
+        <v>45.62</v>
       </c>
       <c r="O5" s="2">
-        <v>44.57</v>
+        <v>45.96</v>
       </c>
       <c r="P5" s="2">
-        <v>44.35</v>
+        <v>45.79</v>
       </c>
       <c r="Q5" s="2">
-        <v>44.51</v>
+        <v>45.96</v>
       </c>
       <c r="R5" s="2">
-        <v>44.65</v>
+        <v>46.1</v>
       </c>
       <c r="S5" s="2">
-        <v>44.01</v>
+        <v>45.53</v>
       </c>
       <c r="T5" s="2">
-        <v>43.79</v>
+        <v>45.37</v>
       </c>
       <c r="U5" s="2">
-        <v>42.78</v>
+        <v>44.48</v>
       </c>
       <c r="V5" s="2">
-        <v>41.84</v>
+        <v>43.67</v>
       </c>
       <c r="W5" s="2">
-        <v>41.42</v>
+        <v>43.33</v>
       </c>
       <c r="X5" s="2">
-        <v>41.34</v>
+        <v>43.29</v>
       </c>
       <c r="Y5" s="2">
-        <v>41.69</v>
+        <v>43.66</v>
       </c>
       <c r="Z5" s="2">
-        <v>41.69</v>
+        <v>43.66</v>
       </c>
       <c r="AA5" s="2">
-        <v>40.42</v>
+        <v>42.55</v>
       </c>
       <c r="AB5" s="2">
-        <v>39.78</v>
+        <v>42.03</v>
       </c>
       <c r="AC5" s="2">
-        <v>39.07</v>
+        <v>41.46</v>
       </c>
       <c r="AD5" s="2">
-        <v>38.79</v>
+        <v>41.27</v>
       </c>
       <c r="AE5" s="2">
+        <v>41.53</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>42.08</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>42.08</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>42.09</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>42.61</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>43.43</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>43.95</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>44.66</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>45.52</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>46.01</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>46.52</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>46.61</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>46.9</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>47.71</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>48.91</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>49.35</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>48.72</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>47.23</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>46.72</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>46.7</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>45.68</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>45</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>42.88</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>40.25</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>37.86</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>36.65</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>36.64</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>37.61</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>39.34</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>39.95</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>42.01</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>42.86</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>41.96</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>43.37</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>46.68</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>51.73</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>51.73</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>52.56</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>58.36</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>52.21</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>42.91</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>30.88</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:78">
+      <c r="A6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>42</v>
+      </c>
+      <c r="F6">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
         <v>39</v>
       </c>
-      <c r="AF5" s="2">
-        <v>39.55</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>39.55</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>39.55</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>40.92</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>41.43</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>41.56</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>41.77</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>42.1</v>
-      </c>
-      <c r="AO5" s="2">
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>39</v>
+      </c>
+      <c r="K6">
+        <v>39</v>
+      </c>
+      <c r="L6">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>39</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>40</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>40</v>
+      </c>
+      <c r="T6">
+        <v>39</v>
+      </c>
+      <c r="U6">
+        <v>39</v>
+      </c>
+      <c r="V6">
+        <v>38</v>
+      </c>
+      <c r="W6">
+        <v>37</v>
+      </c>
+      <c r="X6">
+        <v>37</v>
+      </c>
+      <c r="Y6">
+        <v>37</v>
+      </c>
+      <c r="Z6">
+        <v>37</v>
+      </c>
+      <c r="AA6">
+        <v>37</v>
+      </c>
+      <c r="AB6">
+        <v>36</v>
+      </c>
+      <c r="AC6">
+        <v>35</v>
+      </c>
+      <c r="AD6">
+        <v>34</v>
+      </c>
+      <c r="AE6">
+        <v>34</v>
+      </c>
+      <c r="AF6">
+        <v>35.5</v>
+      </c>
+      <c r="AG6">
+        <v>35.5</v>
+      </c>
+      <c r="AH6">
+        <v>35</v>
+      </c>
+      <c r="AI6">
+        <v>36</v>
+      </c>
+      <c r="AJ6">
+        <v>37</v>
+      </c>
+      <c r="AK6">
+        <v>37</v>
+      </c>
+      <c r="AL6">
+        <v>37.5</v>
+      </c>
+      <c r="AM6">
+        <v>38</v>
+      </c>
+      <c r="AN6">
+        <v>38</v>
+      </c>
+      <c r="AO6">
+        <v>39</v>
+      </c>
+      <c r="AP6">
+        <v>40</v>
+      </c>
+      <c r="AQ6">
+        <v>40</v>
+      </c>
+      <c r="AR6">
+        <v>40</v>
+      </c>
+      <c r="AS6">
+        <v>40.5</v>
+      </c>
+      <c r="AT6">
+        <v>42</v>
+      </c>
+      <c r="AU6">
+        <v>45</v>
+      </c>
+      <c r="AV6">
+        <v>46.5</v>
+      </c>
+      <c r="AW6">
+        <v>46</v>
+      </c>
+      <c r="AX6">
+        <v>45</v>
+      </c>
+      <c r="AY6">
+        <v>44</v>
+      </c>
+      <c r="AZ6">
         <v>43</v>
       </c>
-      <c r="AP5" s="2">
-        <v>43.46</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>43.95</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>43.94</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>44.16</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>45.01</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>46.32</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>46.73</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>45.81</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>43.86</v>
-      </c>
-      <c r="AY5" s="2">
+      <c r="BA6">
         <v>43</v>
       </c>
-      <c r="AZ5" s="2">
-        <v>42.78</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>42.78</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>42.78</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>42.78</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>41.37</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>40.18</v>
-      </c>
-      <c r="BF5" s="2">
-        <v>37.05</v>
-      </c>
-      <c r="BG5" s="2">
-        <v>33.03</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>29.13</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>26.63</v>
-      </c>
-      <c r="BJ5" s="2">
-        <v>25.51</v>
-      </c>
-      <c r="BK5" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="BL5" s="2">
-        <v>26.8</v>
-      </c>
-      <c r="BM5" s="2">
-        <v>27.09</v>
-      </c>
-      <c r="BN5" s="2">
-        <v>28.36</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>27.18</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>20.91</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>17.11</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>13.92</v>
-      </c>
-      <c r="BS5" s="2">
-        <v>12.36</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>12.36</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>12.95</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>6.5</v>
+      <c r="BB6">
+        <v>43</v>
+      </c>
+      <c r="BC6">
+        <v>43</v>
+      </c>
+      <c r="BD6">
+        <v>41</v>
+      </c>
+      <c r="BE6">
+        <v>38</v>
+      </c>
+      <c r="BF6">
+        <v>36</v>
+      </c>
+      <c r="BG6">
+        <v>32</v>
+      </c>
+      <c r="BH6">
+        <v>30</v>
+      </c>
+      <c r="BI6">
+        <v>29</v>
+      </c>
+      <c r="BJ6">
+        <v>28</v>
+      </c>
+      <c r="BK6">
+        <v>29</v>
+      </c>
+      <c r="BL6">
+        <v>31</v>
+      </c>
+      <c r="BM6">
+        <v>32</v>
+      </c>
+      <c r="BN6">
+        <v>37</v>
+      </c>
+      <c r="BO6">
+        <v>37</v>
+      </c>
+      <c r="BP6">
+        <v>32</v>
+      </c>
+      <c r="BQ6">
+        <v>33</v>
+      </c>
+      <c r="BR6">
+        <v>43</v>
+      </c>
+      <c r="BS6">
+        <v>55.5</v>
+      </c>
+      <c r="BT6">
+        <v>55.5</v>
+      </c>
+      <c r="BU6">
+        <v>56.5</v>
+      </c>
+      <c r="BV6">
+        <v>59</v>
+      </c>
+      <c r="BW6">
+        <v>55.5</v>
+      </c>
+      <c r="BX6">
+        <v>40</v>
+      </c>
+      <c r="BY6">
+        <v>29</v>
+      </c>
+      <c r="BZ6">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>39</v>
-      </c>
-      <c r="G6">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>38</v>
-      </c>
-      <c r="I6">
-        <v>38</v>
-      </c>
-      <c r="J6">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>38</v>
-      </c>
-      <c r="L6">
-        <v>38</v>
-      </c>
-      <c r="M6">
-        <v>38</v>
-      </c>
-      <c r="N6">
-        <v>38</v>
-      </c>
-      <c r="O6">
-        <v>39</v>
-      </c>
-      <c r="P6">
-        <v>38</v>
-      </c>
-      <c r="Q6">
-        <v>38</v>
-      </c>
-      <c r="R6">
-        <v>39</v>
-      </c>
-      <c r="S6">
-        <v>38</v>
-      </c>
-      <c r="T6">
-        <v>38</v>
-      </c>
-      <c r="U6">
-        <v>37</v>
-      </c>
-      <c r="V6">
-        <v>36</v>
-      </c>
-      <c r="W6">
-        <v>36</v>
-      </c>
-      <c r="X6">
-        <v>35</v>
-      </c>
-      <c r="Y6">
-        <v>36</v>
-      </c>
-      <c r="Z6">
-        <v>36</v>
-      </c>
-      <c r="AA6">
-        <v>35</v>
-      </c>
-      <c r="AB6">
-        <v>34</v>
-      </c>
-      <c r="AC6">
-        <v>33</v>
-      </c>
-      <c r="AD6">
-        <v>32</v>
-      </c>
-      <c r="AE6">
-        <v>31</v>
-      </c>
-      <c r="AF6">
-        <v>32</v>
-      </c>
-      <c r="AG6">
-        <v>32</v>
-      </c>
-      <c r="AH6">
-        <v>32</v>
-      </c>
-      <c r="AI6">
-        <v>33</v>
-      </c>
-      <c r="AJ6">
-        <v>34</v>
-      </c>
-      <c r="AK6">
-        <v>35</v>
-      </c>
-      <c r="AL6">
-        <v>35</v>
-      </c>
-      <c r="AM6">
-        <v>35</v>
-      </c>
-      <c r="AN6">
-        <v>36</v>
-      </c>
-      <c r="AO6">
-        <v>36.5</v>
-      </c>
-      <c r="AP6">
-        <v>37</v>
-      </c>
-      <c r="AQ6">
-        <v>38</v>
-      </c>
-      <c r="AR6">
-        <v>38</v>
-      </c>
-      <c r="AS6">
-        <v>37</v>
-      </c>
-      <c r="AT6">
-        <v>38</v>
-      </c>
-      <c r="AU6">
-        <v>41</v>
-      </c>
-      <c r="AV6">
-        <v>42</v>
-      </c>
-      <c r="AW6">
-        <v>41.5</v>
-      </c>
-      <c r="AX6">
-        <v>39.5</v>
-      </c>
-      <c r="AY6">
-        <v>36</v>
-      </c>
-      <c r="AZ6">
-        <v>36</v>
-      </c>
-      <c r="BA6">
-        <v>36</v>
-      </c>
-      <c r="BB6">
-        <v>36</v>
-      </c>
-      <c r="BC6">
-        <v>36</v>
-      </c>
-      <c r="BD6">
-        <v>33</v>
-      </c>
-      <c r="BE6">
-        <v>31</v>
-      </c>
-      <c r="BF6">
-        <v>29</v>
-      </c>
-      <c r="BG6">
-        <v>28</v>
-      </c>
-      <c r="BH6">
+    <row r="7" spans="1:78">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>25.94</v>
+      </c>
+      <c r="C7">
         <v>26</v>
       </c>
-      <c r="BI6">
-        <v>25</v>
-      </c>
-      <c r="BJ6">
-        <v>23</v>
-      </c>
-      <c r="BK6">
-        <v>22</v>
-      </c>
-      <c r="BL6">
-        <v>24</v>
-      </c>
-      <c r="BM6">
-        <v>24</v>
-      </c>
-      <c r="BN6">
-        <v>25</v>
-      </c>
-      <c r="BO6">
-        <v>25</v>
-      </c>
-      <c r="BP6">
-        <v>20.5</v>
-      </c>
-      <c r="BQ6">
-        <v>17</v>
-      </c>
-      <c r="BR6">
-        <v>13</v>
-      </c>
-      <c r="BS6">
-        <v>9.5</v>
-      </c>
-      <c r="BT6">
-        <v>9.5</v>
-      </c>
-      <c r="BU6">
-        <v>10.5</v>
-      </c>
-      <c r="BV6">
-        <v>6</v>
+      <c r="D7">
+        <v>26.18</v>
+      </c>
+      <c r="E7">
+        <v>26.41</v>
+      </c>
+      <c r="F7">
+        <v>26.47</v>
+      </c>
+      <c r="G7">
+        <v>26.38</v>
+      </c>
+      <c r="H7">
+        <v>26.36</v>
+      </c>
+      <c r="I7">
+        <v>26.45</v>
+      </c>
+      <c r="J7">
+        <v>26.45</v>
+      </c>
+      <c r="K7">
+        <v>26.45</v>
+      </c>
+      <c r="L7">
+        <v>26.45</v>
+      </c>
+      <c r="M7">
+        <v>26.54</v>
+      </c>
+      <c r="N7">
+        <v>26.56</v>
+      </c>
+      <c r="O7">
+        <v>26.62</v>
+      </c>
+      <c r="P7">
+        <v>26.84</v>
+      </c>
+      <c r="Q7">
+        <v>27.08</v>
+      </c>
+      <c r="R7">
+        <v>27.12</v>
+      </c>
+      <c r="S7">
+        <v>26.6</v>
+      </c>
+      <c r="T7">
+        <v>26.68</v>
+      </c>
+      <c r="U7">
+        <v>26.2</v>
+      </c>
+      <c r="V7">
+        <v>25.94</v>
+      </c>
+      <c r="W7">
+        <v>26.09</v>
+      </c>
+      <c r="X7">
+        <v>26.34</v>
+      </c>
+      <c r="Y7">
+        <v>26.48</v>
+      </c>
+      <c r="Z7">
+        <v>26.48</v>
+      </c>
+      <c r="AA7">
+        <v>25.46</v>
+      </c>
+      <c r="AB7">
+        <v>25.53</v>
+      </c>
+      <c r="AC7">
+        <v>25.6</v>
+      </c>
+      <c r="AD7">
+        <v>25.9</v>
+      </c>
+      <c r="AE7">
+        <v>26.2</v>
+      </c>
+      <c r="AF7">
+        <v>26.29</v>
+      </c>
+      <c r="AG7">
+        <v>26.29</v>
+      </c>
+      <c r="AH7">
+        <v>26.32</v>
+      </c>
+      <c r="AI7">
+        <v>26.47</v>
+      </c>
+      <c r="AJ7">
+        <v>26.35</v>
+      </c>
+      <c r="AK7">
+        <v>26.39</v>
+      </c>
+      <c r="AL7">
+        <v>26.52</v>
+      </c>
+      <c r="AM7">
+        <v>26.51</v>
+      </c>
+      <c r="AN7">
+        <v>26.78</v>
+      </c>
+      <c r="AO7">
+        <v>26.77</v>
+      </c>
+      <c r="AP7">
+        <v>27.1</v>
+      </c>
+      <c r="AQ7">
+        <v>27.37</v>
+      </c>
+      <c r="AR7">
+        <v>27.77</v>
+      </c>
+      <c r="AS7">
+        <v>28.26</v>
+      </c>
+      <c r="AT7">
+        <v>28.46</v>
+      </c>
+      <c r="AU7">
+        <v>28.35</v>
+      </c>
+      <c r="AV7">
+        <v>28.62</v>
+      </c>
+      <c r="AW7">
+        <v>28.31</v>
+      </c>
+      <c r="AX7">
+        <v>27.3</v>
+      </c>
+      <c r="AY7">
+        <v>27.65</v>
+      </c>
+      <c r="AZ7">
+        <v>28.07</v>
+      </c>
+      <c r="BA7">
+        <v>28.07</v>
+      </c>
+      <c r="BB7">
+        <v>28.07</v>
+      </c>
+      <c r="BC7">
+        <v>28.07</v>
+      </c>
+      <c r="BD7">
+        <v>27.2</v>
+      </c>
+      <c r="BE7">
+        <v>27.77</v>
+      </c>
+      <c r="BF7">
+        <v>26.43</v>
+      </c>
+      <c r="BG7">
+        <v>24.99</v>
+      </c>
+      <c r="BH7">
+        <v>23.82</v>
+      </c>
+      <c r="BI7">
+        <v>24.05</v>
+      </c>
+      <c r="BJ7">
+        <v>24.87</v>
+      </c>
+      <c r="BK7">
+        <v>25.67</v>
+      </c>
+      <c r="BL7">
+        <v>25.76</v>
+      </c>
+      <c r="BM7">
+        <v>25.91</v>
+      </c>
+      <c r="BN7">
+        <v>26.23</v>
+      </c>
+      <c r="BO7">
+        <v>26.42</v>
+      </c>
+      <c r="BP7">
+        <v>27.89</v>
+      </c>
+      <c r="BQ7">
+        <v>29.48</v>
+      </c>
+      <c r="BR7">
+        <v>30.51</v>
+      </c>
+      <c r="BS7">
+        <v>29.98</v>
+      </c>
+      <c r="BT7">
+        <v>29.98</v>
+      </c>
+      <c r="BU7">
+        <v>29.61</v>
+      </c>
+      <c r="BV7">
+        <v>26.16</v>
+      </c>
+      <c r="BW7">
+        <v>19.38</v>
+      </c>
+      <c r="BX7">
+        <v>14.57</v>
+      </c>
+      <c r="BY7">
+        <v>6.49</v>
+      </c>
+      <c r="BZ7">
+        <v>1.95</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
-        <v>25.69</v>
-      </c>
-      <c r="C7">
-        <v>25.76</v>
-      </c>
-      <c r="D7">
-        <v>25.95</v>
-      </c>
-      <c r="E7">
-        <v>26.2</v>
-      </c>
-      <c r="F7">
-        <v>26.25</v>
-      </c>
-      <c r="G7">
-        <v>26.12</v>
-      </c>
-      <c r="H7">
-        <v>26.06</v>
-      </c>
-      <c r="I7">
-        <v>26.15</v>
-      </c>
-      <c r="J7">
-        <v>26.15</v>
-      </c>
-      <c r="K7">
-        <v>26.15</v>
-      </c>
-      <c r="L7">
-        <v>26.15</v>
-      </c>
-      <c r="M7">
-        <v>26.25</v>
-      </c>
-      <c r="N7">
-        <v>26.29</v>
-      </c>
-      <c r="O7">
-        <v>26.37</v>
-      </c>
-      <c r="P7">
-        <v>26.6</v>
-      </c>
-      <c r="Q7">
-        <v>26.86</v>
-      </c>
-      <c r="R7">
-        <v>26.91</v>
-      </c>
-      <c r="S7">
-        <v>26.3</v>
-      </c>
-      <c r="T7">
-        <v>26.37</v>
-      </c>
-      <c r="U7">
-        <v>25.76</v>
-      </c>
-      <c r="V7">
-        <v>25.4</v>
-      </c>
-      <c r="W7">
-        <v>25.52</v>
-      </c>
-      <c r="X7">
-        <v>25.79</v>
-      </c>
-      <c r="Y7">
-        <v>25.97</v>
-      </c>
-      <c r="Z7">
-        <v>25.97</v>
-      </c>
-      <c r="AA7">
-        <v>24.68</v>
-      </c>
-      <c r="AB7">
-        <v>24.69</v>
-      </c>
-      <c r="AC7">
-        <v>24.68</v>
-      </c>
-      <c r="AD7">
-        <v>24.98</v>
-      </c>
-      <c r="AE7">
-        <v>25.32</v>
-      </c>
-      <c r="AF7">
-        <v>25.46</v>
-      </c>
-      <c r="AG7">
-        <v>25.46</v>
-      </c>
-      <c r="AH7">
-        <v>25.5</v>
-      </c>
-      <c r="AI7">
-        <v>25.7</v>
-      </c>
-      <c r="AJ7">
-        <v>25.62</v>
-      </c>
-      <c r="AK7">
-        <v>25.71</v>
-      </c>
-      <c r="AL7">
-        <v>25.86</v>
-      </c>
-      <c r="AM7">
-        <v>25.87</v>
-      </c>
-      <c r="AN7">
-        <v>26.2</v>
-      </c>
-      <c r="AO7">
-        <v>26.25</v>
-      </c>
-      <c r="AP7">
-        <v>26.67</v>
-      </c>
-      <c r="AQ7">
-        <v>27.03</v>
-      </c>
-      <c r="AR7">
-        <v>27.5</v>
-      </c>
-      <c r="AS7">
-        <v>28.1</v>
-      </c>
-      <c r="AT7">
-        <v>28.43</v>
-      </c>
-      <c r="AU7">
-        <v>28.42</v>
-      </c>
-      <c r="AV7">
-        <v>28.79</v>
-      </c>
-      <c r="AW7">
-        <v>28.34</v>
-      </c>
-      <c r="AX7">
-        <v>26.87</v>
-      </c>
-      <c r="AY7">
-        <v>27.19</v>
-      </c>
-      <c r="AZ7">
-        <v>27.68</v>
-      </c>
-      <c r="BA7">
-        <v>27.68</v>
-      </c>
-      <c r="BB7">
-        <v>27.68</v>
-      </c>
-      <c r="BC7">
-        <v>27.68</v>
-      </c>
-      <c r="BD7">
-        <v>26.32</v>
-      </c>
-      <c r="BE7">
-        <v>26.84</v>
-      </c>
-      <c r="BF7">
-        <v>24.26</v>
-      </c>
-      <c r="BG7">
-        <v>20.71</v>
-      </c>
-      <c r="BH7">
-        <v>16.56</v>
-      </c>
-      <c r="BI7">
-        <v>14.88</v>
-      </c>
-      <c r="BJ7">
-        <v>15.07</v>
-      </c>
-      <c r="BK7">
-        <v>15.94</v>
-      </c>
-      <c r="BL7">
-        <v>16.3</v>
-      </c>
-      <c r="BM7">
-        <v>16.51</v>
-      </c>
-      <c r="BN7">
-        <v>17.27</v>
-      </c>
-      <c r="BO7">
-        <v>15.62</v>
-      </c>
-      <c r="BP7">
-        <v>10.71</v>
-      </c>
-      <c r="BQ7">
-        <v>9.49</v>
-      </c>
-      <c r="BR7">
-        <v>9.84</v>
-      </c>
-      <c r="BS7">
-        <v>12.54</v>
-      </c>
-      <c r="BT7">
-        <v>12.54</v>
-      </c>
-      <c r="BU7">
-        <v>13.02</v>
-      </c>
-      <c r="BV7">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:78">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>36</v>
@@ -2089,13 +2155,13 @@
         <v>16</v>
       </c>
       <c r="O8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>16</v>
@@ -2140,840 +2206,861 @@
         <v>16</v>
       </c>
       <c r="AF8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AH8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AI8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AJ8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AK8">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AL8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AN8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AO8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AQ8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AR8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AS8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AT8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AU8">
         <v>26</v>
       </c>
       <c r="AV8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AW8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AX8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AY8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BA8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BB8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BC8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BD8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BE8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BF8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BG8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BH8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BI8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BJ8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BK8">
         <v>16</v>
       </c>
       <c r="BL8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BM8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BN8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BO8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BP8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BQ8">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BR8">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="BS8">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="BT8">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="BU8">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="BV8">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="BW8">
+        <v>59</v>
+      </c>
+      <c r="BX8">
+        <v>26</v>
+      </c>
+      <c r="BY8">
+        <v>26</v>
+      </c>
+      <c r="BZ8">
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:78">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:78">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>1615</v>
+        <v>1649</v>
       </c>
       <c r="C10">
-        <v>1609</v>
+        <v>1643</v>
       </c>
       <c r="D10">
-        <v>1589</v>
+        <v>1623</v>
       </c>
       <c r="E10">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="F10">
-        <v>1544</v>
+        <v>1578</v>
       </c>
       <c r="G10">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="H10">
-        <v>1500</v>
+        <v>1534</v>
       </c>
       <c r="I10">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="J10">
-        <v>1458</v>
+        <v>1492</v>
       </c>
       <c r="K10">
-        <v>1436</v>
+        <v>1470</v>
       </c>
       <c r="L10">
-        <v>1416</v>
+        <v>1450</v>
       </c>
       <c r="M10">
-        <v>1394</v>
+        <v>1428</v>
       </c>
       <c r="N10">
-        <v>1373</v>
+        <v>1407</v>
       </c>
       <c r="O10">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="P10">
-        <v>1330</v>
+        <v>1364</v>
       </c>
       <c r="Q10">
-        <v>1307</v>
+        <v>1341</v>
       </c>
       <c r="R10">
-        <v>1286</v>
+        <v>1320</v>
       </c>
       <c r="S10">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="T10">
-        <v>1242</v>
+        <v>1276</v>
       </c>
       <c r="U10">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="V10">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="W10">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="X10">
-        <v>1159</v>
+        <v>1193</v>
       </c>
       <c r="Y10">
-        <v>1136</v>
+        <v>1170</v>
       </c>
       <c r="Z10">
-        <v>1114</v>
+        <v>1148</v>
       </c>
       <c r="AA10">
-        <v>1093</v>
+        <v>1127</v>
       </c>
       <c r="AB10">
-        <v>1071</v>
+        <v>1105</v>
       </c>
       <c r="AC10">
-        <v>1049</v>
+        <v>1083</v>
       </c>
       <c r="AD10">
-        <v>1027</v>
+        <v>1061</v>
       </c>
       <c r="AE10">
-        <v>1005</v>
+        <v>1039</v>
       </c>
       <c r="AF10">
-        <v>984</v>
+        <v>1018</v>
       </c>
       <c r="AG10">
-        <v>962</v>
+        <v>996</v>
       </c>
       <c r="AH10">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="AI10">
-        <v>919</v>
+        <v>953</v>
       </c>
       <c r="AJ10">
-        <v>899</v>
+        <v>933</v>
       </c>
       <c r="AK10">
-        <v>876</v>
+        <v>910</v>
       </c>
       <c r="AL10">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="AM10">
-        <v>834</v>
+        <v>868</v>
       </c>
       <c r="AN10">
-        <v>812</v>
+        <v>846</v>
       </c>
       <c r="AO10">
-        <v>791</v>
+        <v>825</v>
       </c>
       <c r="AP10">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="AQ10">
-        <v>746</v>
+        <v>780</v>
       </c>
       <c r="AR10">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="AS10">
+        <v>737</v>
+      </c>
+      <c r="AT10">
+        <v>716</v>
+      </c>
+      <c r="AU10">
+        <v>695</v>
+      </c>
+      <c r="AV10">
+        <v>675</v>
+      </c>
+      <c r="AW10">
+        <v>652</v>
+      </c>
+      <c r="AX10">
+        <v>632</v>
+      </c>
+      <c r="AY10">
+        <v>609</v>
+      </c>
+      <c r="AZ10">
+        <v>587</v>
+      </c>
+      <c r="BA10">
+        <v>566</v>
+      </c>
+      <c r="BB10">
+        <v>543</v>
+      </c>
+      <c r="BC10">
+        <v>522</v>
+      </c>
+      <c r="BD10">
+        <v>500</v>
+      </c>
+      <c r="BE10">
+        <v>478</v>
+      </c>
+      <c r="BF10">
+        <v>458</v>
+      </c>
+      <c r="BG10">
+        <v>436</v>
+      </c>
+      <c r="BH10">
+        <v>415</v>
+      </c>
+      <c r="BI10">
+        <v>395</v>
+      </c>
+      <c r="BJ10">
+        <v>373</v>
+      </c>
+      <c r="BK10">
+        <v>350</v>
+      </c>
+      <c r="BL10">
+        <v>330</v>
+      </c>
+      <c r="BM10">
+        <v>307</v>
+      </c>
+      <c r="BN10">
+        <v>285</v>
+      </c>
+      <c r="BO10">
+        <v>264</v>
+      </c>
+      <c r="BP10">
+        <v>241</v>
+      </c>
+      <c r="BQ10">
+        <v>220</v>
+      </c>
+      <c r="BR10">
+        <v>199</v>
+      </c>
+      <c r="BS10">
+        <v>177</v>
+      </c>
+      <c r="BT10">
+        <v>157</v>
+      </c>
+      <c r="BU10">
+        <v>136</v>
+      </c>
+      <c r="BV10">
+        <v>115</v>
+      </c>
+      <c r="BW10">
+        <v>93</v>
+      </c>
+      <c r="BX10">
+        <v>72</v>
+      </c>
+      <c r="BY10">
+        <v>49</v>
+      </c>
+      <c r="BZ10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:78">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>1624</v>
+      </c>
+      <c r="C11">
+        <v>1618</v>
+      </c>
+      <c r="D11">
+        <v>1598</v>
+      </c>
+      <c r="E11">
+        <v>1575</v>
+      </c>
+      <c r="F11">
+        <v>1553</v>
+      </c>
+      <c r="G11">
+        <v>1532</v>
+      </c>
+      <c r="H11">
+        <v>1509</v>
+      </c>
+      <c r="I11">
+        <v>1488</v>
+      </c>
+      <c r="J11">
+        <v>1467</v>
+      </c>
+      <c r="K11">
+        <v>1445</v>
+      </c>
+      <c r="L11">
+        <v>1425</v>
+      </c>
+      <c r="M11">
+        <v>1403</v>
+      </c>
+      <c r="N11">
+        <v>1382</v>
+      </c>
+      <c r="O11">
+        <v>1361</v>
+      </c>
+      <c r="P11">
+        <v>1339</v>
+      </c>
+      <c r="Q11">
+        <v>1316</v>
+      </c>
+      <c r="R11">
+        <v>1295</v>
+      </c>
+      <c r="S11">
+        <v>1273</v>
+      </c>
+      <c r="T11">
+        <v>1251</v>
+      </c>
+      <c r="U11">
+        <v>1230</v>
+      </c>
+      <c r="V11">
+        <v>1208</v>
+      </c>
+      <c r="W11">
+        <v>1188</v>
+      </c>
+      <c r="X11">
+        <v>1168</v>
+      </c>
+      <c r="Y11">
+        <v>1145</v>
+      </c>
+      <c r="Z11">
+        <v>1123</v>
+      </c>
+      <c r="AA11">
+        <v>1102</v>
+      </c>
+      <c r="AB11">
+        <v>1080</v>
+      </c>
+      <c r="AC11">
+        <v>1058</v>
+      </c>
+      <c r="AD11">
+        <v>1036</v>
+      </c>
+      <c r="AE11">
+        <v>1014</v>
+      </c>
+      <c r="AF11">
+        <v>993</v>
+      </c>
+      <c r="AG11">
+        <v>971</v>
+      </c>
+      <c r="AH11">
+        <v>949</v>
+      </c>
+      <c r="AI11">
+        <v>928</v>
+      </c>
+      <c r="AJ11">
+        <v>908</v>
+      </c>
+      <c r="AK11">
+        <v>885</v>
+      </c>
+      <c r="AL11">
+        <v>865</v>
+      </c>
+      <c r="AM11">
+        <v>843</v>
+      </c>
+      <c r="AN11">
+        <v>821</v>
+      </c>
+      <c r="AO11">
+        <v>800</v>
+      </c>
+      <c r="AP11">
+        <v>777</v>
+      </c>
+      <c r="AQ11">
+        <v>755</v>
+      </c>
+      <c r="AR11">
+        <v>734</v>
+      </c>
+      <c r="AS11">
+        <v>712</v>
+      </c>
+      <c r="AT11">
+        <v>691</v>
+      </c>
+      <c r="AU11">
+        <v>670</v>
+      </c>
+      <c r="AV11">
+        <v>650</v>
+      </c>
+      <c r="AW11">
+        <v>627</v>
+      </c>
+      <c r="AX11">
+        <v>607</v>
+      </c>
+      <c r="AY11">
+        <v>584</v>
+      </c>
+      <c r="AZ11">
+        <v>562</v>
+      </c>
+      <c r="BA11">
+        <v>541</v>
+      </c>
+      <c r="BB11">
+        <v>518</v>
+      </c>
+      <c r="BC11">
+        <v>497</v>
+      </c>
+      <c r="BD11">
+        <v>475</v>
+      </c>
+      <c r="BE11">
+        <v>453</v>
+      </c>
+      <c r="BF11">
+        <v>433</v>
+      </c>
+      <c r="BG11">
+        <v>411</v>
+      </c>
+      <c r="BH11">
+        <v>390</v>
+      </c>
+      <c r="BI11">
+        <v>370</v>
+      </c>
+      <c r="BJ11">
+        <v>348</v>
+      </c>
+      <c r="BK11">
+        <v>325</v>
+      </c>
+      <c r="BL11">
+        <v>305</v>
+      </c>
+      <c r="BM11">
+        <v>282</v>
+      </c>
+      <c r="BN11">
+        <v>260</v>
+      </c>
+      <c r="BO11">
+        <v>239</v>
+      </c>
+      <c r="BP11">
+        <v>216</v>
+      </c>
+      <c r="BQ11">
+        <v>195</v>
+      </c>
+      <c r="BR11">
+        <v>174</v>
+      </c>
+      <c r="BS11">
+        <v>152</v>
+      </c>
+      <c r="BT11">
+        <v>132</v>
+      </c>
+      <c r="BU11">
+        <v>111</v>
+      </c>
+      <c r="BV11">
+        <v>90</v>
+      </c>
+      <c r="BW11">
+        <v>68</v>
+      </c>
+      <c r="BX11">
+        <v>47</v>
+      </c>
+      <c r="BY11">
+        <v>24</v>
+      </c>
+      <c r="BZ11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>1263</v>
+      </c>
+      <c r="C12">
+        <v>1257</v>
+      </c>
+      <c r="D12">
+        <v>1237</v>
+      </c>
+      <c r="E12">
+        <v>1214</v>
+      </c>
+      <c r="F12">
+        <v>1192</v>
+      </c>
+      <c r="G12">
+        <v>1171</v>
+      </c>
+      <c r="H12">
+        <v>1148</v>
+      </c>
+      <c r="I12">
+        <v>1133</v>
+      </c>
+      <c r="J12">
+        <v>1133</v>
+      </c>
+      <c r="K12">
+        <v>1133</v>
+      </c>
+      <c r="L12">
+        <v>1133</v>
+      </c>
+      <c r="M12">
+        <v>1118</v>
+      </c>
+      <c r="N12">
+        <v>1097</v>
+      </c>
+      <c r="O12">
+        <v>1076</v>
+      </c>
+      <c r="P12">
+        <v>1054</v>
+      </c>
+      <c r="Q12">
+        <v>1032</v>
+      </c>
+      <c r="R12">
+        <v>1025</v>
+      </c>
+      <c r="S12">
+        <v>1014</v>
+      </c>
+      <c r="T12">
+        <v>992</v>
+      </c>
+      <c r="U12">
+        <v>971</v>
+      </c>
+      <c r="V12">
+        <v>949</v>
+      </c>
+      <c r="W12">
+        <v>929</v>
+      </c>
+      <c r="X12">
+        <v>909</v>
+      </c>
+      <c r="Y12">
+        <v>890</v>
+      </c>
+      <c r="Z12">
+        <v>890</v>
+      </c>
+      <c r="AA12">
+        <v>873</v>
+      </c>
+      <c r="AB12">
+        <v>851</v>
+      </c>
+      <c r="AC12">
+        <v>829</v>
+      </c>
+      <c r="AD12">
+        <v>807</v>
+      </c>
+      <c r="AE12">
+        <v>785</v>
+      </c>
+      <c r="AF12">
+        <v>766</v>
+      </c>
+      <c r="AG12">
+        <v>766</v>
+      </c>
+      <c r="AH12">
+        <v>764</v>
+      </c>
+      <c r="AI12">
+        <v>743</v>
+      </c>
+      <c r="AJ12">
+        <v>723</v>
+      </c>
+      <c r="AK12">
         <v>703</v>
       </c>
-      <c r="AT10">
-        <v>682</v>
-      </c>
-      <c r="AU10">
-        <v>661</v>
-      </c>
-      <c r="AV10">
-        <v>641</v>
-      </c>
-      <c r="AW10">
-        <v>618</v>
-      </c>
-      <c r="AX10">
-        <v>598</v>
-      </c>
-      <c r="AY10">
-        <v>575</v>
-      </c>
-      <c r="AZ10">
-        <v>553</v>
-      </c>
-      <c r="BA10">
-        <v>532</v>
-      </c>
-      <c r="BB10">
-        <v>509</v>
-      </c>
-      <c r="BC10">
-        <v>488</v>
-      </c>
-      <c r="BD10">
-        <v>466</v>
-      </c>
-      <c r="BE10">
-        <v>444</v>
-      </c>
-      <c r="BF10">
-        <v>424</v>
-      </c>
-      <c r="BG10">
-        <v>402</v>
-      </c>
-      <c r="BH10">
-        <v>381</v>
-      </c>
-      <c r="BI10">
-        <v>361</v>
-      </c>
-      <c r="BJ10">
-        <v>339</v>
-      </c>
-      <c r="BK10">
-        <v>316</v>
-      </c>
-      <c r="BL10">
-        <v>296</v>
-      </c>
-      <c r="BM10">
-        <v>273</v>
-      </c>
-      <c r="BN10">
-        <v>251</v>
-      </c>
-      <c r="BO10">
-        <v>230</v>
-      </c>
-      <c r="BP10">
-        <v>207</v>
-      </c>
-      <c r="BQ10">
-        <v>186</v>
-      </c>
-      <c r="BR10">
-        <v>165</v>
-      </c>
-      <c r="BS10">
-        <v>143</v>
-      </c>
-      <c r="BT10">
-        <v>123</v>
-      </c>
-      <c r="BU10">
-        <v>102</v>
-      </c>
-      <c r="BV10">
-        <v>81</v>
-      </c>
-      <c r="BW10">
-        <v>59</v>
-      </c>
-      <c r="BX10">
-        <v>38</v>
-      </c>
-      <c r="BY10">
-        <v>15</v>
+      <c r="AL12">
+        <v>694</v>
+      </c>
+      <c r="AM12">
+        <v>689</v>
+      </c>
+      <c r="AN12">
+        <v>669</v>
+      </c>
+      <c r="AO12">
+        <v>648</v>
+      </c>
+      <c r="AP12">
+        <v>625</v>
+      </c>
+      <c r="AQ12">
+        <v>603</v>
+      </c>
+      <c r="AR12">
+        <v>582</v>
+      </c>
+      <c r="AS12">
+        <v>560</v>
+      </c>
+      <c r="AT12">
+        <v>539</v>
+      </c>
+      <c r="AU12">
+        <v>518</v>
+      </c>
+      <c r="AV12">
+        <v>498</v>
+      </c>
+      <c r="AW12">
+        <v>476</v>
+      </c>
+      <c r="AX12">
+        <v>462</v>
+      </c>
+      <c r="AY12">
+        <v>439</v>
+      </c>
+      <c r="AZ12">
+        <v>422</v>
+      </c>
+      <c r="BA12">
+        <v>422</v>
+      </c>
+      <c r="BB12">
+        <v>422</v>
+      </c>
+      <c r="BC12">
+        <v>422</v>
+      </c>
+      <c r="BD12">
+        <v>412</v>
+      </c>
+      <c r="BE12">
+        <v>390</v>
+      </c>
+      <c r="BF12">
+        <v>370</v>
+      </c>
+      <c r="BG12">
+        <v>348</v>
+      </c>
+      <c r="BH12">
+        <v>327</v>
+      </c>
+      <c r="BI12">
+        <v>307</v>
+      </c>
+      <c r="BJ12">
+        <v>285</v>
+      </c>
+      <c r="BK12">
+        <v>262</v>
+      </c>
+      <c r="BL12">
+        <v>244</v>
+      </c>
+      <c r="BM12">
+        <v>236</v>
+      </c>
+      <c r="BN12">
+        <v>214</v>
+      </c>
+      <c r="BO12">
+        <v>193</v>
+      </c>
+      <c r="BP12">
+        <v>170</v>
+      </c>
+      <c r="BQ12">
+        <v>149</v>
+      </c>
+      <c r="BR12">
+        <v>128</v>
+      </c>
+      <c r="BS12">
+        <v>110</v>
+      </c>
+      <c r="BT12">
+        <v>110</v>
+      </c>
+      <c r="BU12">
+        <v>108</v>
+      </c>
+      <c r="BV12">
+        <v>90</v>
+      </c>
+      <c r="BW12">
+        <v>68</v>
+      </c>
+      <c r="BX12">
+        <v>47</v>
+      </c>
+      <c r="BY12">
+        <v>24</v>
+      </c>
+      <c r="BZ12">
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
-      <c r="A11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11">
-        <v>1536</v>
-      </c>
-      <c r="C11">
-        <v>1530</v>
-      </c>
-      <c r="D11">
-        <v>1510</v>
-      </c>
-      <c r="E11">
-        <v>1487</v>
-      </c>
-      <c r="F11">
-        <v>1465</v>
-      </c>
-      <c r="G11">
-        <v>1444</v>
-      </c>
-      <c r="H11">
-        <v>1421</v>
-      </c>
-      <c r="I11">
-        <v>1400</v>
-      </c>
-      <c r="J11">
-        <v>1379</v>
-      </c>
-      <c r="K11">
-        <v>1357</v>
-      </c>
-      <c r="L11">
-        <v>1337</v>
-      </c>
-      <c r="M11">
-        <v>1315</v>
-      </c>
-      <c r="N11">
-        <v>1294</v>
-      </c>
-      <c r="O11">
-        <v>1273</v>
-      </c>
-      <c r="P11">
-        <v>1251</v>
-      </c>
-      <c r="Q11">
-        <v>1228</v>
-      </c>
-      <c r="R11">
-        <v>1207</v>
-      </c>
-      <c r="S11">
-        <v>1185</v>
-      </c>
-      <c r="T11">
-        <v>1163</v>
-      </c>
-      <c r="U11">
-        <v>1142</v>
-      </c>
-      <c r="V11">
-        <v>1120</v>
-      </c>
-      <c r="W11">
-        <v>1100</v>
-      </c>
-      <c r="X11">
-        <v>1080</v>
-      </c>
-      <c r="Y11">
-        <v>1057</v>
-      </c>
-      <c r="Z11">
-        <v>1035</v>
-      </c>
-      <c r="AA11">
-        <v>1014</v>
-      </c>
-      <c r="AB11">
-        <v>992</v>
-      </c>
-      <c r="AC11">
-        <v>970</v>
-      </c>
-      <c r="AD11">
-        <v>948</v>
-      </c>
-      <c r="AE11">
-        <v>926</v>
-      </c>
-      <c r="AF11">
-        <v>905</v>
-      </c>
-      <c r="AG11">
-        <v>883</v>
-      </c>
-      <c r="AH11">
-        <v>861</v>
-      </c>
-      <c r="AI11">
-        <v>840</v>
-      </c>
-      <c r="AJ11">
-        <v>820</v>
-      </c>
-      <c r="AK11">
-        <v>797</v>
-      </c>
-      <c r="AL11">
-        <v>777</v>
-      </c>
-      <c r="AM11">
-        <v>755</v>
-      </c>
-      <c r="AN11">
-        <v>733</v>
-      </c>
-      <c r="AO11">
-        <v>712</v>
-      </c>
-      <c r="AP11">
-        <v>689</v>
-      </c>
-      <c r="AQ11">
-        <v>667</v>
-      </c>
-      <c r="AR11">
-        <v>646</v>
-      </c>
-      <c r="AS11">
-        <v>624</v>
-      </c>
-      <c r="AT11">
-        <v>603</v>
-      </c>
-      <c r="AU11">
-        <v>582</v>
-      </c>
-      <c r="AV11">
-        <v>562</v>
-      </c>
-      <c r="AW11">
-        <v>539</v>
-      </c>
-      <c r="AX11">
-        <v>519</v>
-      </c>
-      <c r="AY11">
-        <v>496</v>
-      </c>
-      <c r="AZ11">
-        <v>474</v>
-      </c>
-      <c r="BA11">
-        <v>453</v>
-      </c>
-      <c r="BB11">
-        <v>430</v>
-      </c>
-      <c r="BC11">
-        <v>409</v>
-      </c>
-      <c r="BD11">
-        <v>387</v>
-      </c>
-      <c r="BE11">
-        <v>365</v>
-      </c>
-      <c r="BF11">
-        <v>345</v>
-      </c>
-      <c r="BG11">
-        <v>323</v>
-      </c>
-      <c r="BH11">
-        <v>302</v>
-      </c>
-      <c r="BI11">
-        <v>282</v>
-      </c>
-      <c r="BJ11">
-        <v>260</v>
-      </c>
-      <c r="BK11">
-        <v>237</v>
-      </c>
-      <c r="BL11">
-        <v>217</v>
-      </c>
-      <c r="BM11">
-        <v>194</v>
-      </c>
-      <c r="BN11">
-        <v>172</v>
-      </c>
-      <c r="BO11">
-        <v>151</v>
-      </c>
-      <c r="BP11">
-        <v>128</v>
-      </c>
-      <c r="BQ11">
-        <v>107</v>
-      </c>
-      <c r="BR11">
-        <v>86</v>
-      </c>
-      <c r="BS11">
-        <v>64</v>
-      </c>
-      <c r="BT11">
-        <v>44</v>
-      </c>
-      <c r="BU11">
-        <v>23</v>
-      </c>
-      <c r="BV11">
-        <v>4</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:77">
-      <c r="A12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
-        <v>1175</v>
-      </c>
-      <c r="C12">
-        <v>1169</v>
-      </c>
-      <c r="D12">
-        <v>1149</v>
-      </c>
-      <c r="E12">
-        <v>1126</v>
-      </c>
-      <c r="F12">
-        <v>1104</v>
-      </c>
-      <c r="G12">
-        <v>1083</v>
-      </c>
-      <c r="H12">
-        <v>1060</v>
-      </c>
-      <c r="I12">
-        <v>1045</v>
-      </c>
-      <c r="J12">
-        <v>1045</v>
-      </c>
-      <c r="K12">
-        <v>1045</v>
-      </c>
-      <c r="L12">
-        <v>1045</v>
-      </c>
-      <c r="M12">
-        <v>1030</v>
-      </c>
-      <c r="N12">
-        <v>1009</v>
-      </c>
-      <c r="O12">
-        <v>988</v>
-      </c>
-      <c r="P12">
-        <v>966</v>
-      </c>
-      <c r="Q12">
-        <v>944</v>
-      </c>
-      <c r="R12">
-        <v>937</v>
-      </c>
-      <c r="S12">
-        <v>926</v>
-      </c>
-      <c r="T12">
-        <v>904</v>
-      </c>
-      <c r="U12">
-        <v>883</v>
-      </c>
-      <c r="V12">
-        <v>861</v>
-      </c>
-      <c r="W12">
-        <v>841</v>
-      </c>
-      <c r="X12">
-        <v>821</v>
-      </c>
-      <c r="Y12">
-        <v>802</v>
-      </c>
-      <c r="Z12">
-        <v>802</v>
-      </c>
-      <c r="AA12">
-        <v>785</v>
-      </c>
-      <c r="AB12">
-        <v>763</v>
-      </c>
-      <c r="AC12">
-        <v>741</v>
-      </c>
-      <c r="AD12">
-        <v>719</v>
-      </c>
-      <c r="AE12">
-        <v>697</v>
-      </c>
-      <c r="AF12">
-        <v>678</v>
-      </c>
-      <c r="AG12">
-        <v>678</v>
-      </c>
-      <c r="AH12">
-        <v>676</v>
-      </c>
-      <c r="AI12">
-        <v>655</v>
-      </c>
-      <c r="AJ12">
-        <v>635</v>
-      </c>
-      <c r="AK12">
-        <v>615</v>
-      </c>
-      <c r="AL12">
-        <v>606</v>
-      </c>
-      <c r="AM12">
-        <v>601</v>
-      </c>
-      <c r="AN12">
-        <v>581</v>
-      </c>
-      <c r="AO12">
-        <v>560</v>
-      </c>
-      <c r="AP12">
-        <v>537</v>
-      </c>
-      <c r="AQ12">
-        <v>515</v>
-      </c>
-      <c r="AR12">
-        <v>494</v>
-      </c>
-      <c r="AS12">
-        <v>472</v>
-      </c>
-      <c r="AT12">
-        <v>451</v>
-      </c>
-      <c r="AU12">
-        <v>430</v>
-      </c>
-      <c r="AV12">
-        <v>410</v>
-      </c>
-      <c r="AW12">
-        <v>388</v>
-      </c>
-      <c r="AX12">
-        <v>374</v>
-      </c>
-      <c r="AY12">
-        <v>351</v>
-      </c>
-      <c r="AZ12">
-        <v>334</v>
-      </c>
-      <c r="BA12">
-        <v>334</v>
-      </c>
-      <c r="BB12">
-        <v>334</v>
-      </c>
-      <c r="BC12">
-        <v>334</v>
-      </c>
-      <c r="BD12">
-        <v>324</v>
-      </c>
-      <c r="BE12">
-        <v>302</v>
-      </c>
-      <c r="BF12">
-        <v>282</v>
-      </c>
-      <c r="BG12">
-        <v>260</v>
-      </c>
-      <c r="BH12">
-        <v>239</v>
-      </c>
-      <c r="BI12">
-        <v>219</v>
-      </c>
-      <c r="BJ12">
-        <v>197</v>
-      </c>
-      <c r="BK12">
-        <v>174</v>
-      </c>
-      <c r="BL12">
-        <v>156</v>
-      </c>
-      <c r="BM12">
-        <v>148</v>
-      </c>
-      <c r="BN12">
-        <v>126</v>
-      </c>
-      <c r="BO12">
-        <v>105</v>
-      </c>
-      <c r="BP12">
-        <v>82</v>
-      </c>
-      <c r="BQ12">
-        <v>61</v>
-      </c>
-      <c r="BR12">
-        <v>40</v>
-      </c>
-      <c r="BS12">
-        <v>22</v>
-      </c>
-      <c r="BT12">
-        <v>22</v>
-      </c>
-      <c r="BU12">
-        <v>20</v>
-      </c>
-      <c r="BV12">
-        <v>4</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:78">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>361</v>
@@ -3203,463 +3290,490 @@
       <c r="BY13">
         <v>0</v>
       </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" s="3" customFormat="1">
+    <row r="14" spans="1:78" s="3" customFormat="1">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3">
-        <v>76.5</v>
+        <v>77.77</v>
       </c>
       <c r="C14" s="3">
+        <v>77.69</v>
+      </c>
+      <c r="D14" s="3">
+        <v>77.41</v>
+      </c>
+      <c r="E14" s="3">
+        <v>77.08</v>
+      </c>
+      <c r="F14" s="3">
+        <v>76.75</v>
+      </c>
+      <c r="G14" s="3">
+        <v>76.44</v>
+      </c>
+      <c r="H14" s="3">
+        <v>76.08</v>
+      </c>
+      <c r="I14" s="3">
+        <v>76.14</v>
+      </c>
+      <c r="J14" s="3">
+        <v>77.23</v>
+      </c>
+      <c r="K14" s="3">
+        <v>78.41</v>
+      </c>
+      <c r="L14" s="3">
+        <v>79.51000000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <v>79.69</v>
+      </c>
+      <c r="N14" s="3">
+        <v>79.38</v>
+      </c>
+      <c r="O14" s="3">
+        <v>79.06</v>
+      </c>
+      <c r="P14" s="3">
+        <v>78.72</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>78.42</v>
+      </c>
+      <c r="R14" s="3">
+        <v>79.15000000000001</v>
+      </c>
+      <c r="S14" s="3">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="T14" s="3">
+        <v>79.3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>78.94</v>
+      </c>
+      <c r="V14" s="3">
+        <v>78.56</v>
+      </c>
+      <c r="W14" s="3">
+        <v>78.2</v>
+      </c>
+      <c r="X14" s="3">
+        <v>77.83</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>77.73</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>79.25</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>79.22</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>78.8</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>78.36</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>77.42</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>77.14</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>78.89</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>80.51000000000001</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>80.06</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>79.63</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>79.44</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>80.23</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>81.73</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>81.48999999999999</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>81</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>80.44</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>79.87</v>
+      </c>
+      <c r="AR14" s="3">
+        <v>79.29000000000001</v>
+      </c>
+      <c r="AS14" s="3">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>78</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>77.31</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>76.62</v>
+      </c>
+      <c r="AW14" s="3">
+        <v>75.92</v>
+      </c>
+      <c r="AX14" s="3">
+        <v>76.11</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>75.17</v>
+      </c>
+      <c r="AZ14" s="3">
+        <v>75.09</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>78</v>
+      </c>
+      <c r="BB14" s="3">
+        <v>81.47</v>
+      </c>
+      <c r="BC14" s="3">
+        <v>84.91</v>
+      </c>
+      <c r="BD14" s="3">
+        <v>86.73999999999999</v>
+      </c>
+      <c r="BE14" s="3">
+        <v>86.09</v>
+      </c>
+      <c r="BF14" s="3">
+        <v>85.45</v>
+      </c>
+      <c r="BG14" s="3">
+        <v>84.67</v>
+      </c>
+      <c r="BH14" s="3">
+        <v>83.84999999999999</v>
+      </c>
+      <c r="BI14" s="3">
+        <v>82.97</v>
+      </c>
+      <c r="BJ14" s="3">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>80.62</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>80</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>83.69</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>82.31</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>80.75</v>
+      </c>
+      <c r="BP14" s="3">
+        <v>78.7</v>
+      </c>
+      <c r="BQ14" s="3">
         <v>76.41</v>
       </c>
-      <c r="D14" s="3">
-        <v>76.09</v>
-      </c>
-      <c r="E14" s="3">
-        <v>75.72</v>
-      </c>
-      <c r="F14" s="3">
-        <v>75.36</v>
-      </c>
-      <c r="G14" s="3">
-        <v>75</v>
-      </c>
-      <c r="H14" s="3">
-        <v>74.59999999999999</v>
-      </c>
-      <c r="I14" s="3">
-        <v>74.64</v>
-      </c>
-      <c r="J14" s="3">
-        <v>75.78</v>
-      </c>
-      <c r="K14" s="3">
-        <v>77.01000000000001</v>
-      </c>
-      <c r="L14" s="3">
-        <v>78.16</v>
-      </c>
-      <c r="M14" s="3">
-        <v>78.33</v>
-      </c>
-      <c r="N14" s="3">
-        <v>77.98</v>
-      </c>
-      <c r="O14" s="3">
-        <v>77.61</v>
-      </c>
-      <c r="P14" s="3">
-        <v>77.22</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>76.87</v>
-      </c>
-      <c r="R14" s="3">
-        <v>77.63</v>
-      </c>
-      <c r="S14" s="3">
-        <v>78.14</v>
-      </c>
-      <c r="T14" s="3">
-        <v>77.73</v>
-      </c>
-      <c r="U14" s="3">
-        <v>77.31999999999999</v>
-      </c>
-      <c r="V14" s="3">
-        <v>76.88</v>
-      </c>
-      <c r="W14" s="3">
-        <v>76.45</v>
-      </c>
-      <c r="X14" s="3">
-        <v>76.02</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>75.88</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>77.48999999999999</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>77.42</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>76.92</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>76.39</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>75.84</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>75.27</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>74.92</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>76.78</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>78.51000000000001</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>77.98</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>77.44</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>77.16</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>77.98999999999999</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>79.26000000000001</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>78.65000000000001</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>77.94</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>77.20999999999999</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>76.47</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>75.64</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>73.88</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>72.95</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>71.98999999999999</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>72.06</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>70.77</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>70.45999999999999</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>73.73</v>
-      </c>
-      <c r="BB14" s="3">
-        <v>77.67</v>
-      </c>
-      <c r="BC14" s="3">
-        <v>81.66</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>83.72</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>82.73999999999999</v>
-      </c>
-      <c r="BF14" s="3">
-        <v>81.73999999999999</v>
-      </c>
-      <c r="BG14" s="3">
-        <v>80.5</v>
-      </c>
-      <c r="BH14" s="3">
-        <v>79.14</v>
-      </c>
-      <c r="BI14" s="3">
-        <v>77.66</v>
-      </c>
-      <c r="BJ14" s="3">
-        <v>75.77</v>
-      </c>
-      <c r="BK14" s="3">
-        <v>73.42</v>
-      </c>
-      <c r="BL14" s="3">
-        <v>71.89</v>
-      </c>
-      <c r="BM14" s="3">
-        <v>76.29000000000001</v>
-      </c>
-      <c r="BN14" s="3">
-        <v>73.26000000000001</v>
-      </c>
-      <c r="BO14" s="3">
-        <v>69.54000000000001</v>
-      </c>
-      <c r="BP14" s="3">
-        <v>64.06</v>
-      </c>
-      <c r="BQ14" s="3">
-        <v>57.01</v>
-      </c>
       <c r="BR14" s="3">
-        <v>46.51</v>
+        <v>73.56</v>
       </c>
       <c r="BS14" s="3">
-        <v>34.38</v>
+        <v>72.37</v>
       </c>
       <c r="BT14" s="3">
-        <v>50</v>
+        <v>83.33</v>
       </c>
       <c r="BU14" s="3">
-        <v>86.95999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="BV14" s="3">
         <v>100</v>
       </c>
+      <c r="BW14" s="3">
+        <v>100</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>100</v>
+      </c>
+      <c r="BY14" s="3">
+        <v>100</v>
+      </c>
+      <c r="BZ14" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="15" spans="1:77" s="4" customFormat="1">
+    <row r="15" spans="1:78" s="4" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B15" s="4">
-        <v>23.5</v>
+        <v>22.23</v>
       </c>
       <c r="C15" s="4">
+        <v>22.31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22.59</v>
+      </c>
+      <c r="E15" s="4">
+        <v>22.92</v>
+      </c>
+      <c r="F15" s="4">
+        <v>23.25</v>
+      </c>
+      <c r="G15" s="4">
+        <v>23.56</v>
+      </c>
+      <c r="H15" s="4">
+        <v>23.92</v>
+      </c>
+      <c r="I15" s="4">
+        <v>23.86</v>
+      </c>
+      <c r="J15" s="4">
+        <v>22.77</v>
+      </c>
+      <c r="K15" s="4">
+        <v>21.59</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20.49</v>
+      </c>
+      <c r="M15" s="4">
+        <v>20.31</v>
+      </c>
+      <c r="N15" s="4">
+        <v>20.62</v>
+      </c>
+      <c r="O15" s="4">
+        <v>20.94</v>
+      </c>
+      <c r="P15" s="4">
+        <v>21.28</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>21.58</v>
+      </c>
+      <c r="R15" s="4">
+        <v>20.85</v>
+      </c>
+      <c r="S15" s="4">
+        <v>20.35</v>
+      </c>
+      <c r="T15" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="U15" s="4">
+        <v>21.06</v>
+      </c>
+      <c r="V15" s="4">
+        <v>21.44</v>
+      </c>
+      <c r="W15" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="X15" s="4">
+        <v>22.17</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>22.27</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>20.75</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>20.78</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>21.64</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>22.58</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>22.86</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>21.11</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>19.49</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>19.94</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>20.37</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>20.56</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>19.77</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>18.27</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>18.51</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>19</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>19.56</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>20.13</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>20.71</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>22</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>22.69</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>23.38</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>24.08</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>23.89</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>24.83</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>24.91</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>22</v>
+      </c>
+      <c r="BB15" s="4">
+        <v>18.53</v>
+      </c>
+      <c r="BC15" s="4">
+        <v>15.09</v>
+      </c>
+      <c r="BD15" s="4">
+        <v>13.26</v>
+      </c>
+      <c r="BE15" s="4">
+        <v>13.91</v>
+      </c>
+      <c r="BF15" s="4">
+        <v>14.55</v>
+      </c>
+      <c r="BG15" s="4">
+        <v>15.33</v>
+      </c>
+      <c r="BH15" s="4">
+        <v>16.15</v>
+      </c>
+      <c r="BI15" s="4">
+        <v>17.03</v>
+      </c>
+      <c r="BJ15" s="4">
+        <v>18.1</v>
+      </c>
+      <c r="BK15" s="4">
+        <v>19.38</v>
+      </c>
+      <c r="BL15" s="4">
+        <v>20</v>
+      </c>
+      <c r="BM15" s="4">
+        <v>16.31</v>
+      </c>
+      <c r="BN15" s="4">
+        <v>17.69</v>
+      </c>
+      <c r="BO15" s="4">
+        <v>19.25</v>
+      </c>
+      <c r="BP15" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="BQ15" s="4">
         <v>23.59</v>
       </c>
-      <c r="D15" s="4">
-        <v>23.91</v>
-      </c>
-      <c r="E15" s="4">
-        <v>24.28</v>
-      </c>
-      <c r="F15" s="4">
-        <v>24.64</v>
-      </c>
-      <c r="G15" s="4">
-        <v>25</v>
-      </c>
-      <c r="H15" s="4">
-        <v>25.4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>25.36</v>
-      </c>
-      <c r="J15" s="4">
-        <v>24.22</v>
-      </c>
-      <c r="K15" s="4">
-        <v>22.99</v>
-      </c>
-      <c r="L15" s="4">
-        <v>21.84</v>
-      </c>
-      <c r="M15" s="4">
-        <v>21.67</v>
-      </c>
-      <c r="N15" s="4">
-        <v>22.02</v>
-      </c>
-      <c r="O15" s="4">
-        <v>22.39</v>
-      </c>
-      <c r="P15" s="4">
-        <v>22.78</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>23.13</v>
-      </c>
-      <c r="R15" s="4">
-        <v>22.37</v>
-      </c>
-      <c r="S15" s="4">
-        <v>21.86</v>
-      </c>
-      <c r="T15" s="4">
-        <v>22.27</v>
-      </c>
-      <c r="U15" s="4">
-        <v>22.68</v>
-      </c>
-      <c r="V15" s="4">
-        <v>23.12</v>
-      </c>
-      <c r="W15" s="4">
-        <v>23.55</v>
-      </c>
-      <c r="X15" s="4">
-        <v>23.98</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>24.12</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>22.51</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>22.58</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>23.08</v>
-      </c>
-      <c r="AC15" s="4">
-        <v>23.61</v>
-      </c>
-      <c r="AD15" s="4">
-        <v>24.16</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>24.73</v>
-      </c>
-      <c r="AF15" s="4">
-        <v>25.08</v>
-      </c>
-      <c r="AG15" s="4">
-        <v>23.22</v>
-      </c>
-      <c r="AH15" s="4">
-        <v>21.49</v>
-      </c>
-      <c r="AI15" s="4">
-        <v>22.02</v>
-      </c>
-      <c r="AJ15" s="4">
-        <v>22.56</v>
-      </c>
-      <c r="AK15" s="4">
-        <v>22.84</v>
-      </c>
-      <c r="AL15" s="4">
-        <v>22.01</v>
-      </c>
-      <c r="AM15" s="4">
-        <v>20.4</v>
-      </c>
-      <c r="AN15" s="4">
-        <v>20.74</v>
-      </c>
-      <c r="AO15" s="4">
-        <v>21.35</v>
-      </c>
-      <c r="AP15" s="4">
-        <v>22.06</v>
-      </c>
-      <c r="AQ15" s="4">
-        <v>22.79</v>
-      </c>
-      <c r="AR15" s="4">
-        <v>23.53</v>
-      </c>
-      <c r="AS15" s="4">
-        <v>24.36</v>
-      </c>
-      <c r="AT15" s="4">
-        <v>25.21</v>
-      </c>
-      <c r="AU15" s="4">
-        <v>26.12</v>
-      </c>
-      <c r="AV15" s="4">
-        <v>27.05</v>
-      </c>
-      <c r="AW15" s="4">
-        <v>28.01</v>
-      </c>
-      <c r="AX15" s="4">
-        <v>27.94</v>
-      </c>
-      <c r="AY15" s="4">
-        <v>29.23</v>
-      </c>
-      <c r="AZ15" s="4">
-        <v>29.54</v>
-      </c>
-      <c r="BA15" s="4">
-        <v>26.27</v>
-      </c>
-      <c r="BB15" s="4">
-        <v>22.33</v>
-      </c>
-      <c r="BC15" s="4">
-        <v>18.34</v>
-      </c>
-      <c r="BD15" s="4">
-        <v>16.28</v>
-      </c>
-      <c r="BE15" s="4">
-        <v>17.26</v>
-      </c>
-      <c r="BF15" s="4">
-        <v>18.26</v>
-      </c>
-      <c r="BG15" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="BH15" s="4">
-        <v>20.86</v>
-      </c>
-      <c r="BI15" s="4">
-        <v>22.34</v>
-      </c>
-      <c r="BJ15" s="4">
-        <v>24.23</v>
-      </c>
-      <c r="BK15" s="4">
-        <v>26.58</v>
-      </c>
-      <c r="BL15" s="4">
-        <v>28.11</v>
-      </c>
-      <c r="BM15" s="4">
-        <v>23.71</v>
-      </c>
-      <c r="BN15" s="4">
-        <v>26.74</v>
-      </c>
-      <c r="BO15" s="4">
-        <v>30.46</v>
-      </c>
-      <c r="BP15" s="4">
-        <v>35.94</v>
-      </c>
-      <c r="BQ15" s="4">
-        <v>42.99</v>
-      </c>
       <c r="BR15" s="4">
-        <v>53.49</v>
+        <v>26.44</v>
       </c>
       <c r="BS15" s="4">
-        <v>65.62</v>
+        <v>27.63</v>
       </c>
       <c r="BT15" s="4">
-        <v>50</v>
+        <v>16.67</v>
       </c>
       <c r="BU15" s="4">
-        <v>13.04</v>
+        <v>2.7</v>
       </c>
       <c r="BV15" s="4">
         <v>0</v>
       </c>
+      <c r="BW15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:78">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:73">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3880,7 +3994,7 @@
     </row>
     <row r="18" spans="1:73">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18">
         <v>145</v>
@@ -4101,7 +4215,7 @@
     </row>
     <row r="19" spans="1:73">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>35.3</v>
@@ -4322,7 +4436,7 @@
     </row>
     <row r="20" spans="1:73">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B20">
         <v>31</v>
@@ -4543,7 +4657,7 @@
     </row>
     <row r="21" spans="1:73">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21">
         <v>13</v>
